--- a/template/ENG/country_data.xlsx
+++ b/template/ENG/country_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/ENG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF99AF-369C-7342-94AC-1C20F85EB6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1CDAA-07EA-024C-8F68-B9511E36EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28620" windowHeight="15980" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
@@ -1094,9 +1094,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1134,7 +1134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1240,7 +1240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1382,7 +1382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1448,18 +1448,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BC92D02-843F-244F-9460-E090EF2C7C0A}">
-          <x14:formula1>
-            <xm:f>_ListValues!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/template/ENG/country_data.xlsx
+++ b/template/ENG/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/ENG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paho-my.sharepoint.com/personal/caine_paho_org/Documents/WDC/Polio/2024/AR municipal/polio-risk-assessment-main/template/ENG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1CDAA-07EA-024C-8F68-B9511E36EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{A8A1CDAA-07EA-024C-8F68-B9511E36EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A805000-DB26-4FA3-84BB-92F5E4720D8B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28620" windowHeight="15980" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="4" activeTab="6" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -171,21 +171,9 @@
     <t>Polio3 administrative coverage by district</t>
   </si>
   <si>
-    <t>IPV2 percentage coverage 2023</t>
-  </si>
-  <si>
-    <t>If the country conducted a polio campaign in 2019-2023, coverage &gt;95% was achieved in the district</t>
-  </si>
-  <si>
     <t>Reporting units</t>
   </si>
   <si>
-    <t>% of reporting units that submitted information in all weeks during the evaluated period (2023)</t>
-  </si>
-  <si>
-    <t>AFP Surveillance (for districts with &gt;100,000 children &lt;15 years or districts with 100,000 children &lt;15 years but that reported AFP cases in 2023)</t>
-  </si>
-  <si>
     <t>AFP rate</t>
   </si>
   <si>
@@ -201,13 +189,6 @@
     <t>% of AFP cases with follow-up at 60 days</t>
   </si>
   <si>
-    <t>In districts that have &lt;100000 children under 15 years old, were active case searches conducted in at least one district in 2023?</t>
-  </si>
-  <si>
-    <t>Active case finding
-(for districts with &lt;100000 children under 15 years old AND without AFP cases in 2023)</t>
-  </si>
-  <si>
     <t xml:space="preserve">People using at least basic drinking water services </t>
   </si>
   <si>
@@ -256,33 +237,12 @@
     <t>Number of people under 5 years of age in the district</t>
   </si>
   <si>
-    <t>For districts were the population of children under 15 years of age is less than 100000, determine if there were AFP cases in 2022</t>
-  </si>
-  <si>
-    <t>Administrative coverage Polio3 2019, 2020, 2021, 2022 y 2023</t>
-  </si>
-  <si>
     <t>Administrative coverage for Polio3 for the corresponding year</t>
   </si>
   <si>
-    <t>IPV coverage 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Administrative coverage for IPV2 in the district. </t>
   </si>
   <si>
-    <t>If the country conducted a polio campaign in 2018-2022, coverage &gt;95% was achieved in the district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For countries that conducted polio campaigns between 2018 and 2022, determine if the district coverage was &gt;95%. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of reporting units for polio surveillance that submitted information in all weeks during 2023. </t>
-  </si>
-  <si>
-    <t>AFP rate for the district in 2023.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percentage of cases that were investigated in less than 48 hours after the notification in the district. </t>
   </si>
   <si>
@@ -292,9 +252,6 @@
     <t xml:space="preserve">Percentage of AFP cases that had a follow-up examination at 60 days after the onset of paralysis. </t>
   </si>
   <si>
-    <t>Institutional active search conducted in at least one health establishment in the district  in 2023 if population &lt;15 is &lt;100,000</t>
-  </si>
-  <si>
     <t>For districts were the population of children under 15 years of age is less than 100000, determine if institutional active search was conducted in at least one health establishment in the district.</t>
   </si>
   <si>
@@ -346,13 +303,43 @@
     <t xml:space="preserve">If there are no notifying units in the disctrict, put zero. </t>
   </si>
   <si>
-    <t xml:space="preserve">This cell should only be completed for districts with a population of &lt;15 years of age &gt;100000 or districts with less population but that reported AFP cases in 2022. For districts with population &lt;15 years of age &lt;100000 and that did not have AFP cases in 2022, the cell will change to gray and no information should be inputted. </t>
-  </si>
-  <si>
     <t xml:space="preserve">If the percentage is not known, an estimate can be used. </t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>For districts were the population of children under 15 years of age is less than 100000, determine if there were AFP cases in the evaluation year?</t>
+  </si>
+  <si>
+    <t>Administrative coverage Polio3 for the last 5 years</t>
+  </si>
+  <si>
+    <t>IPV coverage in the evaluation year</t>
+  </si>
+  <si>
+    <t>If the country conducted a polio campaign in the last 5 years, coverage &gt;95% was achieved in the district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of reporting units that submitted information in all weeks during the evaluated period </t>
+  </si>
+  <si>
+    <t>Institutional active search conducted in at least one health establishment in the district  in the evaluation year if population &lt;15 is &lt;100,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For countries that conducted polio campaigns in the last 5 years, determine if the district coverage was &gt;95%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of reporting units for polio surveillance that submitted information in all weeks during year of evaluation. </t>
+  </si>
+  <si>
+    <t>AFP rate for the district.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This cell should only be completed for districts with a population of &lt;15 years of age &gt;100000 or districts with less population but that reported AFP cases. For districts with population &lt;15 years of age &lt;100000 and that did not have AFP cases, the cell will change to gray and no information should be inputted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This cell should only be completed for districts with a population of &lt;15 years of age &lt;100000 that did not report AFP cases. For districts with population &lt;15 years of age &gt;100000 or districts with population &lt;15 years of age &lt;100000 that reported cases, the cell will change to gray and no information should be inputted. </t>
   </si>
 </sst>
 </file>
@@ -1094,9 +1081,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1134,7 +1121,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1240,7 +1227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1382,7 +1369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1392,16 +1379,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18904028-F9F6-3046-9356-B730934F1CDF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1409,19 +1396,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1429,13 +1418,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1448,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
@@ -1471,7 +1460,7 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
@@ -1497,7 +1486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="5"/>
@@ -1507,7 +1496,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="5"/>
@@ -1517,7 +1506,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="5"/>
@@ -1527,7 +1516,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="5"/>
@@ -1537,7 +1526,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="5"/>
@@ -1547,7 +1536,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="5"/>
@@ -1566,11 +1555,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87362FD8-F1C8-0142-963D-AD6273C5898D}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1578,10 +1567,12 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="13" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1594,9 @@
       <c r="G1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>40</v>
+      <c r="H1" s="48" t="str">
+        <f>"If the population &lt;15 years is less than 100,000, did the district report AFP cases in "&amp;'1-General'!B3&amp;"?"</f>
+        <v>If the population &lt;15 years is less than 100,000, did the district report AFP cases in 2024?</v>
       </c>
       <c r="I1" s="44" t="s">
         <v>41</v>
@@ -1613,14 +1605,16 @@
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
-      <c r="N1" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="44" t="str">
+        <f>"IPV2 percentage coverage in "&amp; '1-General'!B3</f>
+        <v>IPV2 percentage coverage in 2024</v>
+      </c>
+      <c r="O1" s="44" t="str">
+        <f>"If the country conducted a polio campaign in "&amp; '1-General'!B3-4 &amp; "-"&amp; '1-General'!B3&amp; ", &gt;95% coverage was achieved in the district?"</f>
+        <v>If the country conducted a polio campaign in 2020-2024, &gt;95% coverage was achieved in the district?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -1630,24 +1624,29 @@
       <c r="G2" s="47"/>
       <c r="H2" s="49"/>
       <c r="I2" s="33">
-        <v>2019</v>
+        <f>'1-General'!B3-4</f>
+        <v>2020</v>
       </c>
       <c r="J2" s="33">
-        <v>2020</v>
+        <f>'1-General'!B3-3</f>
+        <v>2021</v>
       </c>
       <c r="K2" s="33">
-        <v>2021</v>
+        <f>'1-General'!B3-2</f>
+        <v>2022</v>
       </c>
       <c r="L2" s="33">
-        <v>2022</v>
+        <f>'1-General'!B3-1</f>
+        <v>2023</v>
       </c>
       <c r="M2" s="33">
-        <v>2023</v>
+        <f>'1-General'!B3</f>
+        <v>2024</v>
       </c>
       <c r="N2" s="45"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -1664,7 +1663,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="2"/>
@@ -1681,7 +1680,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="2"/>
@@ -1698,7 +1697,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="2"/>
@@ -1715,7 +1714,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="2"/>
@@ -1732,7 +1731,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="2"/>
@@ -1779,11 +1778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24FC60A-8114-B04C-B5D4-941061AFF1F9}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1794,7 +1793,7 @@
     <col min="15" max="15" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
@@ -1816,24 +1815,29 @@
       <c r="G1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>40</v>
+      <c r="H1" s="48" t="str">
+        <f>"If the population &lt;15 years is less than 100,000, did the district report AFP cases in "&amp;'1-General'!B3&amp;"?"</f>
+        <v>If the population &lt;15 years is less than 100,000, did the district report AFP cases in 2024?</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="J1" s="52" t="str">
+        <f>"AFP Surveillance (for districts with &gt;100,000 children &lt;15 years or districts with 100,000 children &lt;15 years but that reported AFP cases in "&amp;'1-General'!B3&amp;")"</f>
+        <v>AFP Surveillance (for districts with &gt;100,000 children &lt;15 years or districts with 100,000 children &lt;15 years but that reported AFP cases in 2024)</v>
       </c>
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
-      <c r="O1" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="36" t="str">
+        <f>"Active case finding
+(for districts with &lt;100000 children under 15 years old AND without AFP cases in "&amp;'1-General'!B3&amp;")"</f>
+        <v>Active case finding
+(for districts with &lt;100000 children under 15 years old AND without AFP cases in 2024)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -1842,29 +1846,31 @@
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
       <c r="H2" s="49"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="36" t="str">
+        <f>"% of reporting units that submitted information in all weeks during the evaluation period ("&amp;'1-General'!B3&amp;")"</f>
+        <v>% of reporting units that submitted information in all weeks during the evaluation period (2024)</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="M2" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="36" t="str">
+        <f>"In districts that have &lt;100000 children under 15 years old, were active case searches conducted in at least one district in "&amp;'1-General'!B3&amp;"?"</f>
+        <v>In districts that have &lt;100000 children under 15 years old, were active case searches conducted in at least one district in 2024?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -1881,7 +1887,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="2"/>
@@ -1898,7 +1904,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="2"/>
@@ -1915,7 +1921,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="2"/>
@@ -1932,7 +1938,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="2"/>
@@ -1949,7 +1955,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="2"/>
@@ -1994,18 +2000,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CC216D-4B82-884B-A94C-AD4D5EE82E42}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
@@ -2027,17 +2033,18 @@
       <c r="G1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>40</v>
+      <c r="H1" s="48" t="str">
+        <f>"If the population &lt;15 years is less than 100,000, did the district report AFP cases in "&amp;'1-General'!B3&amp;"?"</f>
+        <v>If the population &lt;15 years is less than 100,000, did the district report AFP cases in 2024?</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -2047,13 +2054,13 @@
       <c r="G2" s="47"/>
       <c r="H2" s="49"/>
       <c r="I2" s="38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -2065,7 +2072,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="2"/>
@@ -2077,7 +2084,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="2"/>
@@ -2089,7 +2096,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="2"/>
@@ -2101,7 +2108,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="2"/>
@@ -2113,7 +2120,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="2"/>
@@ -2152,11 +2159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5205DBED-7CB8-CA49-87DC-8975752A1842}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="7" width="13.83203125" customWidth="1"/>
@@ -2164,7 +2171,7 @@
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
@@ -2186,11 +2193,12 @@
       <c r="G1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>40</v>
+      <c r="H1" s="48" t="str">
+        <f>"If the population &lt;15 years is less than 100,000, did the district report AFP cases in "&amp;'1-General'!B3&amp;"?"</f>
+        <v>If the population &lt;15 years is less than 100,000, did the district report AFP cases in 2024?</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J1" s="55"/>
       <c r="K1" s="55"/>
@@ -2198,7 +2206,7 @@
       <c r="M1" s="55"/>
       <c r="N1" s="55"/>
     </row>
-    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -2211,22 +2219,22 @@
         <v>23</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="2"/>
@@ -2242,7 +2250,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="2"/>
@@ -2258,7 +2266,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="2"/>
@@ -2274,7 +2282,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="2"/>
@@ -2290,7 +2298,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="2"/>
@@ -2306,7 +2314,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="2"/>
@@ -2359,11 +2367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24261340-693F-D844-8FDC-79D93DCEE3FF}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="32" customWidth="1"/>
@@ -2372,7 +2380,7 @@
     <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
         <v>15</v>
       </c>
@@ -2400,7 +2408,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="65"/>
       <c r="B3" s="29" t="s">
         <v>33</v>
@@ -2409,72 +2417,72 @@
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="65"/>
       <c r="B4" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="65"/>
       <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="66"/>
       <c r="B6" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="66"/>
       <c r="B7" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E7" s="39"/>
     </row>
-    <row r="8" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="67"/>
       <c r="B8" s="30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="68" t="s">
         <v>16</v>
       </c>
@@ -2482,106 +2490,106 @@
         <v>40</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="69"/>
       <c r="B10" s="15" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="69"/>
       <c r="B11" s="15" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="70"/>
       <c r="B12" s="41" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="57"/>
       <c r="B14" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="57"/>
       <c r="B15" s="41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="57"/>
       <c r="B16" s="15" t="s">
         <v>1</v>
@@ -2590,159 +2598,159 @@
         <v>11</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="57"/>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="57"/>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="124.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="58"/>
       <c r="B19" s="41" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="140" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="60"/>
       <c r="B21" s="41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="62"/>
       <c r="B23" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="62"/>
       <c r="B24" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="62"/>
       <c r="B25" s="26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="63"/>
       <c r="B26" s="24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="11"/>
@@ -2769,9 +2777,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2782,18 +2790,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2804,22 +2812,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>14</v>
       </c>
